--- a/xrd.xlsx
+++ b/xrd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boken\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d13n887\Downloads\Weld-table-main\Weld-table-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14D595D-25F6-4A00-AE9A-A3BBED6A3190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F74F86-2EA8-40D7-8C74-B7DAEC4188C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26820" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>forbidden reflections</t>
   </si>
@@ -81,37 +72,52 @@
     <t>ratio 2</t>
   </si>
   <si>
+    <t>1/(d^2)</t>
+  </si>
+  <si>
+    <t>this multiply gives hole numbers</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>m=h^2+k^2+l^2</t>
+  </si>
+  <si>
+    <t>wave length</t>
+  </si>
+  <si>
+    <t>all the same = cubic</t>
+  </si>
+  <si>
+    <t>ratio 20</t>
+  </si>
+  <si>
+    <t>hkl** sum</t>
+  </si>
+  <si>
+    <t>data for austenitic 304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data for martensite </t>
+  </si>
+  <si>
+    <t>ratio 6</t>
+  </si>
+  <si>
     <t>ratio 3</t>
-  </si>
-  <si>
-    <t>1/(d^2)</t>
-  </si>
-  <si>
-    <t>this multiply gives hole numbers</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>m=h^2+k^2+l^2</t>
-  </si>
-  <si>
-    <t>wave length</t>
-  </si>
-  <si>
-    <t>all the same = cubic</t>
   </si>
 </sst>
 </file>
@@ -122,7 +128,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -130,7 +136,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -187,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +214,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -491,20 +516,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:Z36"/>
+  <dimension ref="C1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:K28"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="11" max="11" width="14.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -521,7 +546,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -546,7 +571,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:26" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -554,12 +579,12 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="2"/>
       <c r="M3" s="4" t="s">
         <v>6</v>
@@ -571,7 +596,7 @@
         <v>7</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>9</v>
@@ -580,27 +605,29 @@
         <v>10</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Y3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="3:26" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -620,19 +647,19 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="3">
-        <v>28.440999999999999</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="N4" s="3">
         <f>RADIANS(M4)/2</f>
-        <v>0.24819454627985363</v>
+        <v>1.2845623294678266</v>
       </c>
       <c r="O4" s="3">
         <f>M14/(2*SIN(N4))</f>
-        <v>3.135708262032324</v>
+        <v>0.80296964335302201</v>
       </c>
       <c r="P4" s="5">
         <f>1/(O4^2)</f>
-        <v>0.10170181403740221</v>
+        <v>1.5509641031294097</v>
       </c>
       <c r="Q4" s="3">
         <v>1</v>
@@ -641,28 +668,31 @@
         <v>2</v>
       </c>
       <c r="S4" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="T4" s="3">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <f>V4^2+W4^2+X4^2</f>
+        <v>20</v>
+      </c>
       <c r="Z4">
         <f>O4*SQRT(V4^2+W4^2+X4^2)</f>
-        <v>5.431206027553487</v>
-      </c>
-    </row>
-    <row r="5" spans="3:26" x14ac:dyDescent="0.35">
+        <v>3.590989412812239</v>
+      </c>
+    </row>
+    <row r="5" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C5" s="2"/>
       <c r="D5" s="3">
         <v>7</v>
@@ -684,52 +714,55 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="3">
-        <v>47.301000000000002</v>
+        <v>138.464</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" ref="N5:N8" si="0">RADIANS(M5)/2</f>
-        <v>0.41277909474291891</v>
+        <v>1.2083263477407142</v>
       </c>
       <c r="O5" s="3">
         <f>M14/(2*SIN(N5))</f>
-        <v>1.9201979824761284</v>
+        <v>0.82382924455385442</v>
       </c>
       <c r="P5" s="5">
         <f t="shared" ref="P5:P8" si="1">1/(O5^2)</f>
-        <v>0.27121142582147828</v>
+        <v>1.4734167096210578</v>
       </c>
       <c r="Q5" s="3">
         <f>P5/$P4</f>
-        <v>2.6667314480913453</v>
+        <v>0.95000052331844231</v>
       </c>
       <c r="R5" s="5">
         <f>Q5*2</f>
-        <v>5.3334628961826906</v>
+        <v>1.9000010466368846</v>
       </c>
       <c r="S5" s="5">
-        <f>Q5*3</f>
-        <v>8.0001943442740355</v>
+        <f>Q5*20</f>
+        <v>19.000010466368845</v>
       </c>
       <c r="T5" s="5">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W5" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" ref="Y5:Y8" si="2">V5^2+W5^2+X5^2</f>
+        <v>19</v>
+      </c>
       <c r="Z5">
-        <f t="shared" ref="Z5:Z8" si="2">O5*SQRT(V5^2+W5^2+X5^2)</f>
-        <v>5.4311400585183911</v>
-      </c>
-    </row>
-    <row r="6" spans="3:26" x14ac:dyDescent="0.35">
+        <f t="shared" ref="Z5:Z8" si="3">O5*SQRT(V5^2+W5^2+X5^2)</f>
+        <v>3.5909884237437075</v>
+      </c>
+    </row>
+    <row r="6" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <v>15</v>
@@ -751,49 +784,52 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="3">
-        <v>56.12</v>
+        <v>118.194</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="0"/>
-        <v>0.48973938810960888</v>
+        <v>1.0314372280510891</v>
       </c>
       <c r="O6" s="3">
         <f>M14/(2*SIN(N6))</f>
-        <v>1.6375567002620188</v>
+        <v>0.89774577117076382</v>
       </c>
       <c r="P6" s="5">
         <f t="shared" si="1"/>
-        <v>0.37291281444888008</v>
+        <v>1.2407756555499587</v>
       </c>
       <c r="Q6" s="3">
         <f>P6/P4</f>
-        <v>3.6667272651767684</v>
+        <v>0.80000281956650199</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5">
-        <f t="shared" ref="S6:S8" si="3">Q6*3</f>
-        <v>11.000181795530306</v>
+        <f t="shared" ref="S6:S8" si="4">Q6*20</f>
+        <v>16.000056391330041</v>
       </c>
       <c r="T6" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="Z6">
-        <f t="shared" si="2"/>
-        <v>5.4311611477015989</v>
-      </c>
-    </row>
-    <row r="7" spans="3:26" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>3.5909830846830553</v>
+      </c>
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C7" s="2"/>
       <c r="D7" s="3">
         <v>23</v>
@@ -815,49 +851,52 @@
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="3">
-        <v>69.126999999999995</v>
+        <v>95.989000000000004</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="0"/>
-        <v>0.60324687601306004</v>
+        <v>0.83766204784841858</v>
       </c>
       <c r="O7" s="3">
         <f>M14/(2*SIN(N7))</f>
-        <v>1.3577892755558063</v>
+        <v>1.0366304950435228</v>
       </c>
       <c r="P7" s="5">
         <f t="shared" si="1"/>
-        <v>0.54241944725589908</v>
+        <v>0.93057640979836076</v>
       </c>
       <c r="Q7" s="3">
         <f>P7/P4</f>
-        <v>5.3334294219807825</v>
+        <v>0.59999867690085096</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5">
-        <f t="shared" si="3"/>
-        <v>16.000288265942348</v>
+        <f t="shared" si="4"/>
+        <v>11.99997353801702</v>
       </c>
       <c r="T7" s="5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W7" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
       <c r="Z7">
-        <f t="shared" si="2"/>
-        <v>5.4311571022232252</v>
-      </c>
-    </row>
-    <row r="8" spans="3:26" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>3.590993372181317</v>
+      </c>
+    </row>
+    <row r="8" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="3">
         <v>28</v>
@@ -879,49 +918,52 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="3">
-        <v>76.373000000000005</v>
+        <v>90.704999999999998</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="0"/>
-        <v>0.66648015481281464</v>
+        <v>0.79155044901072824</v>
       </c>
       <c r="O8" s="3">
         <f>M14/(2*SIN(N8))</f>
-        <v>1.2459900910849282</v>
+        <v>1.0827279881904108</v>
       </c>
       <c r="P8" s="5">
         <f t="shared" si="1"/>
-        <v>0.64412598990951564</v>
+        <v>0.8530240453501936</v>
       </c>
       <c r="Q8" s="3">
         <f>P8/P4</f>
-        <v>6.3334759168861003</v>
+        <v>0.54999599515490449</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5">
-        <f t="shared" si="3"/>
-        <v>19.0004277506583</v>
+        <f t="shared" si="4"/>
+        <v>10.999919903098089</v>
       </c>
       <c r="T8" s="5">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="3">
         <v>3</v>
       </c>
       <c r="W8" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X8" s="3">
         <v>1</v>
       </c>
-      <c r="Y8" s="1"/>
+      <c r="Y8" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
       <c r="Z8">
-        <f t="shared" si="2"/>
-        <v>5.4311448916922416</v>
-      </c>
-    </row>
-    <row r="9" spans="3:26" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>3.5910024868439452</v>
+      </c>
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -954,7 +996,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -977,7 +1019,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1000,10 +1042,10 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="Z11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="3:26" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1024,10 +1066,10 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="S12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1048,7 +1090,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1067,13 +1109,13 @@
         <v>1.5406</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1090,7 +1132,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1107,7 +1149,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1124,23 +1166,23 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1149,7 +1191,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1174,7 +1216,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1199,7 +1241,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1219,12 +1261,16 @@
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="P21" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1249,7 +1295,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1274,7 +1320,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1299,7 +1345,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1324,7 +1370,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="H26" s="5">
         <v>3</v>
       </c>
@@ -1338,7 +1384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:26" ht="15" x14ac:dyDescent="0.2">
       <c r="H27" s="5">
         <v>3</v>
       </c>
@@ -1351,8 +1397,48 @@
       <c r="K27" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="M27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U27" s="5"/>
+      <c r="V27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="H28" s="5">
         <v>3</v>
       </c>
@@ -1365,8 +1451,53 @@
       <c r="K28" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="M28" s="7">
+        <v>137.14099999999999</v>
+      </c>
+      <c r="N28" s="7">
+        <f>RADIANS(M28)/2</f>
+        <v>1.1967809947387718</v>
+      </c>
+      <c r="O28" s="7">
+        <f>M14/(2*SIN(N28))</f>
+        <v>0.82750738309026028</v>
+      </c>
+      <c r="P28" s="5">
+        <f>1/(O28^2)</f>
+        <v>1.4603476140771248</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>1</v>
+      </c>
+      <c r="R28" s="7">
+        <v>2</v>
+      </c>
+      <c r="S28" s="7">
+        <v>12</v>
+      </c>
+      <c r="T28" s="7">
+        <v>12</v>
+      </c>
+      <c r="U28" s="5"/>
+      <c r="V28" s="7">
+        <v>2</v>
+      </c>
+      <c r="W28" s="7">
+        <v>2</v>
+      </c>
+      <c r="X28" s="7">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="1">
+        <f>V28^2+W28^2+X28^2</f>
+        <v>12</v>
+      </c>
+      <c r="Z28">
+        <f>O28*SQRT(V28^2+W28^2+X28^2)</f>
+        <v>2.8665696623013872</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="H29" s="5">
         <v>2</v>
       </c>
@@ -1379,8 +1510,56 @@
       <c r="K29" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="M29" s="7">
+        <v>116.372</v>
+      </c>
+      <c r="N29" s="7">
+        <f t="shared" ref="N29:N32" si="5">RADIANS(M29)/2</f>
+        <v>1.0155372785654206</v>
+      </c>
+      <c r="O29" s="7">
+        <f>M14/(2*SIN(N29))</f>
+        <v>0.90648707567455344</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" ref="P29:P32" si="6">1/(O29^2)</f>
+        <v>1.2169612982573861</v>
+      </c>
+      <c r="Q29" s="7">
+        <f>P29/$P28</f>
+        <v>0.83333672512379997</v>
+      </c>
+      <c r="R29" s="5">
+        <f>Q29*2</f>
+        <v>1.6666734502475999</v>
+      </c>
+      <c r="S29" s="5">
+        <f>Q29*12</f>
+        <v>10.000040701485599</v>
+      </c>
+      <c r="T29" s="5">
+        <v>10</v>
+      </c>
+      <c r="U29" s="5"/>
+      <c r="V29" s="7">
+        <v>3</v>
+      </c>
+      <c r="W29" s="7">
+        <v>1</v>
+      </c>
+      <c r="X29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <f t="shared" ref="Y29:Y32" si="7">V29^2+W29^2+X29^2</f>
+        <v>10</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" ref="Z29:Z32" si="8">O29*SQRT(V29^2+W29^2+X29^2)</f>
+        <v>2.8665638286370037</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="H30" s="5">
         <v>3</v>
       </c>
@@ -1393,8 +1572,53 @@
       <c r="K30" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="M30" s="7">
+        <v>98.936999999999998</v>
+      </c>
+      <c r="N30" s="7">
+        <f t="shared" si="5"/>
+        <v>0.86338820102281488</v>
+      </c>
+      <c r="O30" s="7">
+        <f>M14/(2*SIN(N30))</f>
+        <v>1.0134875576950884</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="6"/>
+        <v>0.97356097576116696</v>
+      </c>
+      <c r="Q30" s="7">
+        <f>P30/P28</f>
+        <v>0.66666385891718971</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5">
+        <f>Q30*12</f>
+        <v>7.999966307006277</v>
+      </c>
+      <c r="T30" s="5">
+        <v>8</v>
+      </c>
+      <c r="U30" s="5"/>
+      <c r="V30" s="7">
+        <v>2</v>
+      </c>
+      <c r="W30" s="7">
+        <v>2</v>
+      </c>
+      <c r="X30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="8"/>
+        <v>2.8665756987775572</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="H31" s="5">
         <v>3</v>
       </c>
@@ -1407,8 +1631,53 @@
       <c r="K31" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="M31" s="7">
+        <v>82.379000000000005</v>
+      </c>
+      <c r="N31" s="7">
+        <f t="shared" si="5"/>
+        <v>0.7188923922502044</v>
+      </c>
+      <c r="O31" s="7">
+        <f>M14/(2*SIN(N31))</f>
+        <v>1.1696882137298033</v>
+      </c>
+      <c r="P31" s="5">
+        <f t="shared" si="6"/>
+        <v>0.73090304704515807</v>
+      </c>
+      <c r="Q31" s="7">
+        <f>P31/P28</f>
+        <v>0.50049936056290034</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5">
+        <f>Q31*12</f>
+        <v>6.0059923267548037</v>
+      </c>
+      <c r="T31" s="5">
+        <v>6</v>
+      </c>
+      <c r="U31" s="5"/>
+      <c r="V31" s="7">
+        <v>2</v>
+      </c>
+      <c r="W31" s="7">
+        <v>1</v>
+      </c>
+      <c r="X31" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="1">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="8"/>
+        <v>2.8651392817855306</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="H32" s="5">
         <v>4</v>
       </c>
@@ -1421,8 +1690,53 @@
       <c r="K32" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="M32" s="7">
+        <v>65.019000000000005</v>
+      </c>
+      <c r="N32" s="7">
+        <f t="shared" si="5"/>
+        <v>0.56739781317709659</v>
+      </c>
+      <c r="O32" s="7">
+        <f>M14/(2*SIN(N32))</f>
+        <v>1.4332777646546297</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="6"/>
+        <v>0.48678733800998691</v>
+      </c>
+      <c r="Q32" s="7">
+        <f>P32/P28</f>
+        <v>0.3333366202112194</v>
+      </c>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5">
+        <f>Q32*12</f>
+        <v>4.0000394425346331</v>
+      </c>
+      <c r="T32" s="5">
+        <v>4</v>
+      </c>
+      <c r="U32" s="5"/>
+      <c r="V32" s="7">
+        <v>2</v>
+      </c>
+      <c r="W32" s="7">
+        <v>0</v>
+      </c>
+      <c r="X32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="8"/>
+        <v>2.8665555293092595</v>
+      </c>
+    </row>
+    <row r="33" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H33" s="5">
         <v>4</v>
       </c>
@@ -1435,8 +1749,21 @@
       <c r="K33" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H34" s="5">
         <v>3</v>
       </c>
@@ -1450,7 +1777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H35" s="5">
         <v>3</v>
       </c>
@@ -1463,8 +1790,16 @@
       <c r="K35" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="M35" s="2"/>
+      <c r="N35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H36" s="5">
         <v>4</v>
       </c>
@@ -1476,6 +1811,240 @@
       </c>
       <c r="K36" s="3">
         <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="8:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="M42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S42" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U42" s="13"/>
+      <c r="V42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W42" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="X42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="M43" s="11">
+        <v>28.440999999999999</v>
+      </c>
+      <c r="N43" s="11">
+        <v>0.24819454627985363</v>
+      </c>
+      <c r="O43" s="11">
+        <v>3.135708262032324</v>
+      </c>
+      <c r="P43" s="13">
+        <v>0.10170181403740221</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>1</v>
+      </c>
+      <c r="R43" s="11">
+        <v>2</v>
+      </c>
+      <c r="S43" s="11">
+        <v>3</v>
+      </c>
+      <c r="T43" s="11">
+        <v>3</v>
+      </c>
+      <c r="U43" s="13"/>
+      <c r="V43" s="11">
+        <v>1</v>
+      </c>
+      <c r="W43" s="11">
+        <v>1</v>
+      </c>
+      <c r="X43" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="9">
+        <v>5.431206027553487</v>
+      </c>
+    </row>
+    <row r="44" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="M44" s="11">
+        <v>47.301000000000002</v>
+      </c>
+      <c r="N44" s="11">
+        <v>0.41277909474291891</v>
+      </c>
+      <c r="O44" s="11">
+        <v>1.9201979824761284</v>
+      </c>
+      <c r="P44" s="13">
+        <v>0.27121142582147828</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>2.6667314480913453</v>
+      </c>
+      <c r="R44" s="13">
+        <v>5.3334628961826906</v>
+      </c>
+      <c r="S44" s="13">
+        <v>8.0001943442740355</v>
+      </c>
+      <c r="T44" s="13">
+        <v>8</v>
+      </c>
+      <c r="U44" s="13"/>
+      <c r="V44" s="11">
+        <v>2</v>
+      </c>
+      <c r="W44" s="11">
+        <v>2</v>
+      </c>
+      <c r="X44" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="9">
+        <v>5.4311400585183911</v>
+      </c>
+    </row>
+    <row r="45" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="M45" s="11">
+        <v>56.12</v>
+      </c>
+      <c r="N45" s="11">
+        <v>0.48973938810960888</v>
+      </c>
+      <c r="O45" s="11">
+        <v>1.6375567002620188</v>
+      </c>
+      <c r="P45" s="13">
+        <v>0.37291281444888008</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>3.6667272651767684</v>
+      </c>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13">
+        <v>11.000181795530306</v>
+      </c>
+      <c r="T45" s="13">
+        <v>11</v>
+      </c>
+      <c r="U45" s="13"/>
+      <c r="V45" s="11">
+        <v>3</v>
+      </c>
+      <c r="W45" s="11">
+        <v>1</v>
+      </c>
+      <c r="X45" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="9">
+        <v>5.4311611477015989</v>
+      </c>
+    </row>
+    <row r="46" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="M46" s="11">
+        <v>69.126999999999995</v>
+      </c>
+      <c r="N46" s="11">
+        <v>0.60324687601306004</v>
+      </c>
+      <c r="O46" s="11">
+        <v>1.3577892755558063</v>
+      </c>
+      <c r="P46" s="13">
+        <v>0.54241944725589908</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>5.3334294219807825</v>
+      </c>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13">
+        <v>16.000288265942348</v>
+      </c>
+      <c r="T46" s="13">
+        <v>16</v>
+      </c>
+      <c r="U46" s="13"/>
+      <c r="V46" s="11">
+        <v>4</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+      <c r="X46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="9">
+        <v>5.4311571022232252</v>
+      </c>
+    </row>
+    <row r="47" spans="8:26" x14ac:dyDescent="0.2">
+      <c r="M47" s="11">
+        <v>76.373000000000005</v>
+      </c>
+      <c r="N47" s="11">
+        <v>0.66648015481281464</v>
+      </c>
+      <c r="O47" s="11">
+        <v>1.2459900910849282</v>
+      </c>
+      <c r="P47" s="13">
+        <v>0.64412598990951564</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>6.3334759168861003</v>
+      </c>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13">
+        <v>19.0004277506583</v>
+      </c>
+      <c r="T47" s="13">
+        <v>19</v>
+      </c>
+      <c r="U47" s="13"/>
+      <c r="V47" s="11">
+        <v>3</v>
+      </c>
+      <c r="W47" s="11">
+        <v>3</v>
+      </c>
+      <c r="X47" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="9">
+        <v>5.4311448916922416</v>
       </c>
     </row>
   </sheetData>

--- a/xrd.xlsx
+++ b/xrd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d13n887\Downloads\Weld-table-main\Weld-table-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Weld-table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F74F86-2EA8-40D7-8C74-B7DAEC4188C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA97FEA-2A48-4E21-85B9-06AADA550197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26820" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -128,7 +137,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -136,7 +145,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -193,7 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,25 +223,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -519,17 +509,17 @@
   <dimension ref="C1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -546,7 +536,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -571,7 +561,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="3:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -579,12 +569,12 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="2"/>
       <c r="M3" s="4" t="s">
         <v>6</v>
@@ -627,7 +617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -671,7 +661,7 @@
         <v>20</v>
       </c>
       <c r="T4" s="3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="3">
@@ -692,7 +682,7 @@
         <v>3.590989412812239</v>
       </c>
     </row>
-    <row r="5" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C5" s="2"/>
       <c r="D5" s="3">
         <v>7</v>
@@ -762,7 +752,7 @@
         <v>3.5909884237437075</v>
       </c>
     </row>
-    <row r="6" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <v>15</v>
@@ -829,7 +819,7 @@
         <v>3.5909830846830553</v>
       </c>
     </row>
-    <row r="7" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C7" s="2"/>
       <c r="D7" s="3">
         <v>23</v>
@@ -896,7 +886,7 @@
         <v>3.590993372181317</v>
       </c>
     </row>
-    <row r="8" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C8" s="2"/>
       <c r="D8" s="3">
         <v>28</v>
@@ -963,7 +953,7 @@
         <v>3.5910024868439452</v>
       </c>
     </row>
-    <row r="9" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -996,7 +986,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1019,7 +1009,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1045,7 +1035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1069,7 +1059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1090,7 +1080,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1115,7 +1105,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1132,7 +1122,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1149,7 +1139,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1166,7 +1156,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1191,7 +1181,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1216,7 +1206,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1241,7 +1231,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1270,7 +1260,7 @@
       </c>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1295,7 +1285,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1320,7 +1310,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1345,7 +1335,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1370,7 +1360,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:26" x14ac:dyDescent="0.35">
       <c r="H26" s="5">
         <v>3</v>
       </c>
@@ -1384,7 +1374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="3:26" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.35">
       <c r="H27" s="5">
         <v>3</v>
       </c>
@@ -1403,32 +1393,32 @@
       <c r="N27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q27" s="7" t="s">
+      <c r="Q27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R27" s="7" t="s">
+      <c r="R27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="S27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T27" s="7" t="s">
+      <c r="T27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="U27" s="5"/>
-      <c r="V27" s="7" t="s">
+      <c r="V27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W27" s="7" t="s">
+      <c r="W27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X27" s="7" t="s">
+      <c r="X27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Y27" s="1" t="s">
@@ -1438,7 +1428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.35">
       <c r="H28" s="5">
         <v>3</v>
       </c>
@@ -1451,14 +1441,14 @@
       <c r="K28" s="3">
         <v>11</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="3">
         <v>137.14099999999999</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="3">
         <f>RADIANS(M28)/2</f>
         <v>1.1967809947387718</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="3">
         <f>M14/(2*SIN(N28))</f>
         <v>0.82750738309026028</v>
       </c>
@@ -1466,26 +1456,26 @@
         <f>1/(O28^2)</f>
         <v>1.4603476140771248</v>
       </c>
-      <c r="Q28" s="7">
-        <v>1</v>
-      </c>
-      <c r="R28" s="7">
-        <v>2</v>
-      </c>
-      <c r="S28" s="7">
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3">
+        <v>2</v>
+      </c>
+      <c r="S28" s="3">
         <v>12</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T28" s="3">
         <v>12</v>
       </c>
       <c r="U28" s="5"/>
-      <c r="V28" s="7">
-        <v>2</v>
-      </c>
-      <c r="W28" s="7">
-        <v>2</v>
-      </c>
-      <c r="X28" s="7">
+      <c r="V28" s="3">
+        <v>2</v>
+      </c>
+      <c r="W28" s="3">
+        <v>2</v>
+      </c>
+      <c r="X28" s="3">
         <v>2</v>
       </c>
       <c r="Y28" s="1">
@@ -1497,7 +1487,7 @@
         <v>2.8665696623013872</v>
       </c>
     </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:26" x14ac:dyDescent="0.35">
       <c r="H29" s="5">
         <v>2</v>
       </c>
@@ -1510,14 +1500,14 @@
       <c r="K29" s="3">
         <v>12</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="3">
         <v>116.372</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="3">
         <f t="shared" ref="N29:N32" si="5">RADIANS(M29)/2</f>
         <v>1.0155372785654206</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="3">
         <f>M14/(2*SIN(N29))</f>
         <v>0.90648707567455344</v>
       </c>
@@ -1525,7 +1515,7 @@
         <f t="shared" ref="P29:P32" si="6">1/(O29^2)</f>
         <v>1.2169612982573861</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="3">
         <f>P29/$P28</f>
         <v>0.83333672512379997</v>
       </c>
@@ -1541,13 +1531,13 @@
         <v>10</v>
       </c>
       <c r="U29" s="5"/>
-      <c r="V29" s="7">
-        <v>3</v>
-      </c>
-      <c r="W29" s="7">
-        <v>1</v>
-      </c>
-      <c r="X29" s="7">
+      <c r="V29" s="3">
+        <v>3</v>
+      </c>
+      <c r="W29" s="3">
+        <v>1</v>
+      </c>
+      <c r="X29" s="3">
         <v>0</v>
       </c>
       <c r="Y29" s="1">
@@ -1559,7 +1549,7 @@
         <v>2.8665638286370037</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.35">
       <c r="H30" s="5">
         <v>3</v>
       </c>
@@ -1572,14 +1562,14 @@
       <c r="K30" s="3">
         <v>13</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="3">
         <v>98.936999999999998</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="3">
         <f t="shared" si="5"/>
         <v>0.86338820102281488</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="3">
         <f>M14/(2*SIN(N30))</f>
         <v>1.0134875576950884</v>
       </c>
@@ -1587,7 +1577,7 @@
         <f t="shared" si="6"/>
         <v>0.97356097576116696</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="Q30" s="3">
         <f>P30/P28</f>
         <v>0.66666385891718971</v>
       </c>
@@ -1600,13 +1590,13 @@
         <v>8</v>
       </c>
       <c r="U30" s="5"/>
-      <c r="V30" s="7">
-        <v>2</v>
-      </c>
-      <c r="W30" s="7">
-        <v>2</v>
-      </c>
-      <c r="X30" s="7">
+      <c r="V30" s="3">
+        <v>2</v>
+      </c>
+      <c r="W30" s="3">
+        <v>2</v>
+      </c>
+      <c r="X30" s="3">
         <v>0</v>
       </c>
       <c r="Y30" s="1">
@@ -1618,7 +1608,7 @@
         <v>2.8665756987775572</v>
       </c>
     </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:26" x14ac:dyDescent="0.35">
       <c r="H31" s="5">
         <v>3</v>
       </c>
@@ -1631,14 +1621,14 @@
       <c r="K31" s="3">
         <v>14</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="3">
         <v>82.379000000000005</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="3">
         <f t="shared" si="5"/>
         <v>0.7188923922502044</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="3">
         <f>M14/(2*SIN(N31))</f>
         <v>1.1696882137298033</v>
       </c>
@@ -1646,7 +1636,7 @@
         <f t="shared" si="6"/>
         <v>0.73090304704515807</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="3">
         <f>P31/P28</f>
         <v>0.50049936056290034</v>
       </c>
@@ -1659,13 +1649,13 @@
         <v>6</v>
       </c>
       <c r="U31" s="5"/>
-      <c r="V31" s="7">
-        <v>2</v>
-      </c>
-      <c r="W31" s="7">
-        <v>1</v>
-      </c>
-      <c r="X31" s="7">
+      <c r="V31" s="3">
+        <v>2</v>
+      </c>
+      <c r="W31" s="3">
+        <v>1</v>
+      </c>
+      <c r="X31" s="3">
         <v>1</v>
       </c>
       <c r="Y31" s="1">
@@ -1677,7 +1667,7 @@
         <v>2.8651392817855306</v>
       </c>
     </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:26" x14ac:dyDescent="0.35">
       <c r="H32" s="5">
         <v>4</v>
       </c>
@@ -1690,14 +1680,14 @@
       <c r="K32" s="3">
         <v>16</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="3">
         <v>65.019000000000005</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="3">
         <f t="shared" si="5"/>
         <v>0.56739781317709659</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="3">
         <f>M14/(2*SIN(N32))</f>
         <v>1.4332777646546297</v>
       </c>
@@ -1705,7 +1695,7 @@
         <f t="shared" si="6"/>
         <v>0.48678733800998691</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="3">
         <f>P32/P28</f>
         <v>0.3333366202112194</v>
       </c>
@@ -1718,13 +1708,13 @@
         <v>4</v>
       </c>
       <c r="U32" s="5"/>
-      <c r="V32" s="7">
-        <v>2</v>
-      </c>
-      <c r="W32" s="7">
-        <v>0</v>
-      </c>
-      <c r="X32" s="7">
+      <c r="V32" s="3">
+        <v>2</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="1">
@@ -1736,7 +1726,7 @@
         <v>2.8665555293092595</v>
       </c>
     </row>
-    <row r="33" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:26" x14ac:dyDescent="0.35">
       <c r="H33" s="5">
         <v>4</v>
       </c>
@@ -1763,7 +1753,7 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:26" x14ac:dyDescent="0.35">
       <c r="H34" s="5">
         <v>3</v>
       </c>
@@ -1777,7 +1767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="8:26" x14ac:dyDescent="0.35">
       <c r="H35" s="5">
         <v>3</v>
       </c>
@@ -1799,7 +1789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="8:26" x14ac:dyDescent="0.35">
       <c r="H36" s="5">
         <v>4</v>
       </c>
@@ -1813,237 +1803,237 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="8:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="M42" s="12" t="s">
+    <row r="42" spans="8:26" x14ac:dyDescent="0.35">
+      <c r="M42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N42" s="13" t="s">
+      <c r="N42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="11" t="s">
+      <c r="O42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P42" s="13" t="s">
+      <c r="P42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q42" s="11" t="s">
+      <c r="Q42" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R42" s="11" t="s">
+      <c r="R42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S42" s="11" t="s">
+      <c r="S42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T42" s="11" t="s">
+      <c r="T42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U42" s="13"/>
-      <c r="V42" s="11" t="s">
+      <c r="U42" s="5"/>
+      <c r="V42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="W42" s="11" t="s">
+      <c r="W42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X42" s="11" t="s">
+      <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="14" t="s">
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="M43" s="11">
+    <row r="43" spans="8:26" x14ac:dyDescent="0.35">
+      <c r="M43" s="3">
         <v>28.440999999999999</v>
       </c>
-      <c r="N43" s="11">
+      <c r="N43" s="3">
         <v>0.24819454627985363</v>
       </c>
-      <c r="O43" s="11">
+      <c r="O43" s="3">
         <v>3.135708262032324</v>
       </c>
-      <c r="P43" s="13">
+      <c r="P43" s="5">
         <v>0.10170181403740221</v>
       </c>
-      <c r="Q43" s="11">
-        <v>1</v>
-      </c>
-      <c r="R43" s="11">
-        <v>2</v>
-      </c>
-      <c r="S43" s="11">
-        <v>3</v>
-      </c>
-      <c r="T43" s="11">
-        <v>3</v>
-      </c>
-      <c r="U43" s="13"/>
-      <c r="V43" s="11">
-        <v>1</v>
-      </c>
-      <c r="W43" s="11">
-        <v>1</v>
-      </c>
-      <c r="X43" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="9">
+      <c r="Q43" s="3">
+        <v>1</v>
+      </c>
+      <c r="R43" s="3">
+        <v>2</v>
+      </c>
+      <c r="S43" s="3">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3">
+        <v>3</v>
+      </c>
+      <c r="U43" s="5"/>
+      <c r="V43" s="3">
+        <v>1</v>
+      </c>
+      <c r="W43" s="3">
+        <v>1</v>
+      </c>
+      <c r="X43" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="1"/>
+      <c r="Z43">
         <v>5.431206027553487</v>
       </c>
     </row>
-    <row r="44" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="M44" s="11">
+    <row r="44" spans="8:26" x14ac:dyDescent="0.35">
+      <c r="M44" s="3">
         <v>47.301000000000002</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N44" s="3">
         <v>0.41277909474291891</v>
       </c>
-      <c r="O44" s="11">
+      <c r="O44" s="3">
         <v>1.9201979824761284</v>
       </c>
-      <c r="P44" s="13">
+      <c r="P44" s="5">
         <v>0.27121142582147828</v>
       </c>
-      <c r="Q44" s="11">
+      <c r="Q44" s="3">
         <v>2.6667314480913453</v>
       </c>
-      <c r="R44" s="13">
+      <c r="R44" s="5">
         <v>5.3334628961826906</v>
       </c>
-      <c r="S44" s="13">
+      <c r="S44" s="5">
         <v>8.0001943442740355</v>
       </c>
-      <c r="T44" s="13">
+      <c r="T44" s="5">
         <v>8</v>
       </c>
-      <c r="U44" s="13"/>
-      <c r="V44" s="11">
-        <v>2</v>
-      </c>
-      <c r="W44" s="11">
-        <v>2</v>
-      </c>
-      <c r="X44" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="9">
+      <c r="U44" s="5"/>
+      <c r="V44" s="3">
+        <v>2</v>
+      </c>
+      <c r="W44" s="3">
+        <v>2</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1"/>
+      <c r="Z44">
         <v>5.4311400585183911</v>
       </c>
     </row>
-    <row r="45" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="M45" s="11">
+    <row r="45" spans="8:26" x14ac:dyDescent="0.35">
+      <c r="M45" s="3">
         <v>56.12</v>
       </c>
-      <c r="N45" s="11">
+      <c r="N45" s="3">
         <v>0.48973938810960888</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O45" s="3">
         <v>1.6375567002620188</v>
       </c>
-      <c r="P45" s="13">
+      <c r="P45" s="5">
         <v>0.37291281444888008</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q45" s="3">
         <v>3.6667272651767684</v>
       </c>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13">
+      <c r="R45" s="5"/>
+      <c r="S45" s="5">
         <v>11.000181795530306</v>
       </c>
-      <c r="T45" s="13">
+      <c r="T45" s="5">
         <v>11</v>
       </c>
-      <c r="U45" s="13"/>
-      <c r="V45" s="11">
-        <v>3</v>
-      </c>
-      <c r="W45" s="11">
-        <v>1</v>
-      </c>
-      <c r="X45" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="9">
+      <c r="U45" s="5"/>
+      <c r="V45" s="3">
+        <v>3</v>
+      </c>
+      <c r="W45" s="3">
+        <v>1</v>
+      </c>
+      <c r="X45" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="1"/>
+      <c r="Z45">
         <v>5.4311611477015989</v>
       </c>
     </row>
-    <row r="46" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="M46" s="11">
+    <row r="46" spans="8:26" x14ac:dyDescent="0.35">
+      <c r="M46" s="3">
         <v>69.126999999999995</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="3">
         <v>0.60324687601306004</v>
       </c>
-      <c r="O46" s="11">
+      <c r="O46" s="3">
         <v>1.3577892755558063</v>
       </c>
-      <c r="P46" s="13">
+      <c r="P46" s="5">
         <v>0.54241944725589908</v>
       </c>
-      <c r="Q46" s="11">
+      <c r="Q46" s="3">
         <v>5.3334294219807825</v>
       </c>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13">
+      <c r="R46" s="5"/>
+      <c r="S46" s="5">
         <v>16.000288265942348</v>
       </c>
-      <c r="T46" s="13">
+      <c r="T46" s="5">
         <v>16</v>
       </c>
-      <c r="U46" s="13"/>
-      <c r="V46" s="11">
+      <c r="U46" s="5"/>
+      <c r="V46" s="3">
         <v>4</v>
       </c>
-      <c r="W46" s="11">
-        <v>0</v>
-      </c>
-      <c r="X46" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="9">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1"/>
+      <c r="Z46">
         <v>5.4311571022232252</v>
       </c>
     </row>
-    <row r="47" spans="8:26" x14ac:dyDescent="0.2">
-      <c r="M47" s="11">
+    <row r="47" spans="8:26" x14ac:dyDescent="0.35">
+      <c r="M47" s="3">
         <v>76.373000000000005</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N47" s="3">
         <v>0.66648015481281464</v>
       </c>
-      <c r="O47" s="11">
+      <c r="O47" s="3">
         <v>1.2459900910849282</v>
       </c>
-      <c r="P47" s="13">
+      <c r="P47" s="5">
         <v>0.64412598990951564</v>
       </c>
-      <c r="Q47" s="11">
+      <c r="Q47" s="3">
         <v>6.3334759168861003</v>
       </c>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13">
+      <c r="R47" s="5"/>
+      <c r="S47" s="5">
         <v>19.0004277506583</v>
       </c>
-      <c r="T47" s="13">
+      <c r="T47" s="5">
         <v>19</v>
       </c>
-      <c r="U47" s="13"/>
-      <c r="V47" s="11">
-        <v>3</v>
-      </c>
-      <c r="W47" s="11">
-        <v>3</v>
-      </c>
-      <c r="X47" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="9">
+      <c r="U47" s="5"/>
+      <c r="V47" s="3">
+        <v>3</v>
+      </c>
+      <c r="W47" s="3">
+        <v>3</v>
+      </c>
+      <c r="X47" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="1"/>
+      <c r="Z47">
         <v>5.4311448916922416</v>
       </c>
     </row>
